--- a/Service.Catalog/wwwroot/layout/excel/Route/RutasListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/Route/RutasListado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\Route\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB93E6-4A3C-42DD-B9A0-E331947A76DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E09E0F-0B3E-4527-B2D7-27D70A8C9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rutas">Rutas!$A$3:$E$5</definedName>
+    <definedName name="Rutas">Rutas!$A$4:$E$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -569,7 +569,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Service.Catalog/wwwroot/layout/excel/Route/RutasListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/Route/RutasListado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\Route\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E09E0F-0B3E-4527-B2D7-27D70A8C9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4423B4-2681-4127-8106-0AE5DAB130B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="1905" yWindow="195" windowWidth="14865" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -95,16 +95,16 @@
     <t>{{item.Nombre}}</t>
   </si>
   <si>
-    <t>{{item.SucursalOrigenId}}</t>
-  </si>
-  <si>
     <t>Sucursal Origen</t>
   </si>
   <si>
     <t>Destino</t>
   </si>
   <si>
-    <t>{{item.SucursalDestinoId}}</t>
+    <t>{{item.SucursalDestino}}</t>
+  </si>
+  <si>
+    <t>{{item.SucursalOrigen}}</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -622,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
